--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1917732.60028227</v>
+        <v>2009769.421039541</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6256516.072871237</v>
+        <v>6666243.849214463</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>255.7879340493992</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -671,7 +673,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>87.98598606326961</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>161.4126253388131</v>
+        <v>56.0632790900671</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -877,10 +879,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>159.7080630013533</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>95.58060005053804</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1063,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>145.6174362006994</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>117.6389794551517</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1142,7 +1144,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.1531638478813</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>247.4120385849164</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1300,16 +1302,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>49.30653966551922</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,10 +1378,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>42.9523654119409</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1424,10 +1426,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1537,7 +1539,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1576,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>61.80230824279523</v>
+        <v>251.7760767448688</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1616,13 +1618,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.15512004405433</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1774,16 +1776,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.4593473060492</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.5461237886722</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>136.4732455394229</v>
+        <v>71.04375511693387</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031825</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2287,25 +2289,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>146.3034971231916</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2491,7 +2493,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2527,22 +2529,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>50.43511027187863</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.0622932587864</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>25.98727664058491</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>111.1186542427746</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>79.47996908724016</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.72691704366594</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>48.83731858401327</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>241.3235897653266</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3487,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>178.5633473017375</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>154.5873765790791</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3712,7 +3714,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>189.5250304668952</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3745,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>193.559809097424</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>156.3950745845503</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.0791037818806</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>349.2661106736706</v>
       </c>
       <c r="W44" t="n">
-        <v>17.83771408212452</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>114.7423370331714</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>235.6651522841636</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1324.455001356089</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C2" t="n">
-        <v>1301.594675409793</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D2" t="n">
-        <v>878.3020545947929</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E2" t="n">
-        <v>856.3655187830545</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F2" t="n">
-        <v>431.2413369724547</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G2" t="n">
         <v>342.3666035752127</v>
@@ -4331,49 +4333,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074144</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>549.9383681074144</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V2" t="n">
-        <v>1745.630772103422</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.239422403769</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X2" t="n">
-        <v>1341.55982761192</v>
+        <v>1495.547442888648</v>
       </c>
       <c r="Y2" t="n">
-        <v>1340.262961607214</v>
+        <v>1494.250576883943</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>966.8891568663047</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608809</v>
+        <v>966.8891568663047</v>
       </c>
       <c r="M3" t="n">
-        <v>1302.520320645319</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="N3" t="n">
-        <v>1853.185855629757</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.4330674769622</v>
+        <v>1012.336359290852</v>
       </c>
       <c r="C4" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
         <v>792.3900115791711</v>
@@ -4486,52 +4488,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1944.726803962681</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1663.01533657071</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1388.162932743223</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X4" t="n">
-        <v>1145.599036189028</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.599036189028</v>
+        <v>1202.502328002918</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.9701437626245</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C5" t="n">
         <v>107.0694137759246</v>
@@ -4565,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2128.365191805267</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2128.365191805267</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2128.365191805267</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1770.875776931517</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>1770.875776931517</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8185080541546</v>
+        <v>291.2510154811631</v>
       </c>
     </row>
     <row r="6">
@@ -4650,22 +4652,22 @@
         <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
+        <v>316.1957143288386</v>
+      </c>
+      <c r="M6" t="n">
+        <v>316.1957143288386</v>
+      </c>
+      <c r="N6" t="n">
+        <v>316.1957143288386</v>
+      </c>
+      <c r="O6" t="n">
         <v>866.8612493132769</v>
       </c>
-      <c r="M6" t="n">
-        <v>866.8612493132769</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1220.501010560616</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1220.501010560616</v>
-      </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.8526545450773</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>620.8800914239932</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>457.5633185507639</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>291.3551127036175</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>291.3551127036175</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394888</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W7" t="n">
-        <v>1209.361391567401</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="X7" t="n">
-        <v>1209.361391567401</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>983.018623257143</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030285</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>895.898005082137</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
         <v>448.8372874597989</v>
@@ -4808,16 +4810,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M8" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="M8" t="n">
-        <v>1145.829295018124</v>
-      </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
         <v>1651.269438076291</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.716137464517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.716137464517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.716137464517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1763.226722590766</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1366.835372891113</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X8" t="n">
-        <v>955.1153740588602</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336857</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>595.8003524114338</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>423.8277892903498</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>260.5110164171205</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>94.30281056997401</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>1786.751981150003</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="V10" t="n">
-        <v>1786.751981150003</v>
+        <v>1529.725389815439</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1254.872985987952</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1012.309089433757</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>785.9663211234994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1695.366041180366</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.465311193666</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>845.1726903786666</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>801.7864626898374</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.632070870094</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>1860.024098055719</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>2660.465710453522</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>2660.465710453522</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2908.814659757381</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2908.814659757381</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2512.423310057728</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2100.703311225476</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1695.366041180366</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763832</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.928168679499</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1072.928168679499</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>1011.396293177787</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>676.106957183474</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U13" t="n">
-        <v>1917.872116097398</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V13" t="n">
-        <v>1855.445542114777</v>
+        <v>1528.812593559469</v>
       </c>
       <c r="W13" t="n">
-        <v>1580.59313828729</v>
+        <v>1253.960189731982</v>
       </c>
       <c r="X13" t="n">
-        <v>1338.029241733095</v>
+        <v>1011.396293177787</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>1011.396293177787</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1340.852441150634</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>913.9517111639343</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>490.6590903489346</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>64.68215049679216</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>64.68215049679216</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679216</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L14" t="n">
-        <v>1943.23552968699</v>
+        <v>1722.07995438875</v>
       </c>
       <c r="M14" t="n">
-        <v>2743.677142084793</v>
+        <v>2726.366055807808</v>
       </c>
       <c r="N14" t="n">
-        <v>2743.677142084793</v>
+        <v>3702.617114294509</v>
       </c>
       <c r="O14" t="n">
-        <v>2743.677142084793</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="P14" t="n">
-        <v>2743.677142084793</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>3199.762621588976</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3156.173060148644</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2935.247489193277</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2935.247489193277</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2577.758074319527</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2577.758074319527</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2166.038075487274</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1760.700805442164</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>1136.821252174186</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N15" t="n">
-        <v>1136.821252174186</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.9759608300975</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>538.0033977090135</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>374.6866248357842</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>208.4784189886378</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>208.4784189886378</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>208.4784189886378</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679216</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>1502.870701950157</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>1228.01829812267</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>985.4544015684754</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.1419295421631</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5494,13 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5513,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3105.626261478504</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5592,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>528.0267489559496</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1364.825557038856</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>750.4259316760252</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>750.4259316760252</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760252</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5674,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="U19" t="n">
-        <v>1684.350969080031</v>
+        <v>2210.954372013976</v>
       </c>
       <c r="V19" t="n">
-        <v>1684.350969080031</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="W19" t="n">
-        <v>1409.498565252544</v>
+        <v>1654.390500794518</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.934668698349</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y19" t="n">
-        <v>940.5919003880908</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5831,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E22" t="n">
         <v>683.9862940886057</v>
@@ -5935,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1992.33777973203</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1992.33777973203</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="23">
@@ -6005,7 +6007,7 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>712.1625887178441</v>
+        <v>3854.586992529306</v>
       </c>
       <c r="C25" t="n">
-        <v>540.1900255967601</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="D25" t="n">
-        <v>540.1900255967601</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>540.1900255967601</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>4323.493657393759</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.793760306111</v>
+        <v>4323.493657393759</v>
       </c>
       <c r="X25" t="n">
-        <v>986.2298637519162</v>
+        <v>4080.929760839565</v>
       </c>
       <c r="Y25" t="n">
-        <v>902.3285574299098</v>
+        <v>3854.586992529306</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6229,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.7245472657505</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>380.7519841446665</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>380.7519841446665</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>214.54377829752</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>214.54377829752</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>214.54377829752</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1680.640275178947</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1438.076378624753</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.8905159778161</v>
+        <v>1211.733610314495</v>
       </c>
     </row>
     <row r="29">
@@ -6479,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1077.775362431822</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>905.8027993107378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="D31" t="n">
-        <v>742.4860264375085</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E31" t="n">
-        <v>576.277820590362</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F31" t="n">
-        <v>404.4160463649224</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G31" t="n">
-        <v>238.1590766591546</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6649,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1785.357631525569</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1510.505227698082</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1267.941331143888</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>1267.941331143888</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6716,10 +6718,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1013.511272808982</v>
+        <v>1068.606254915256</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>896.6336917941717</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>733.3169189209424</v>
       </c>
       <c r="E34" t="n">
         <v>683.9862940886057</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1955.492679006434</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V34" t="n">
-        <v>1673.781211614463</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.020009831305</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X34" t="n">
-        <v>1430.020009831305</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y34" t="n">
-        <v>1203.677241521047</v>
+        <v>1258.772223627321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6953,31 +6955,31 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7123,22 +7125,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1830.869225946121</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1556.016822118634</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>1556.016822118634</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>786.1869982294928</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.812045848769</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267828</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.349205754529</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905341</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7256,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1529.586448057074</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>1529.586448057074</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.8870954416583</v>
+        <v>603.8490191059097</v>
       </c>
       <c r="C40" t="n">
-        <v>759.8870954416583</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D40" t="n">
-        <v>596.570322568429</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E40" t="n">
-        <v>440.4214573370359</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F40" t="n">
         <v>268.5596831115964</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7360,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1503.646164133598</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1228.793760306111</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>986.2298637519162</v>
+        <v>794.0149878179755</v>
       </c>
       <c r="Y40" t="n">
-        <v>759.8870954416583</v>
+        <v>794.0149878179755</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>984.9662176937238</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>558.065487707024</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>362.5505290227573</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>362.5505290227573</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>362.5505290227573</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.632070870094</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>2381.073683267897</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>3181.515295665699</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U41" t="n">
-        <v>2975.752615436019</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2618.263200562269</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2221.871850862616</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>1810.151852030363</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1404.814581985254</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>608.7826918167199</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L42" t="n">
-        <v>608.7826918167199</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M42" t="n">
-        <v>608.7826918167199</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N42" t="n">
-        <v>1409.224304214523</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O42" t="n">
-        <v>1409.224304214523</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1409.224304214523</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.98166339623</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>569.009100275146</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>569.009100275146</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>402.8008944279995</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>230.93912020256</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679213</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679213</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1954.717216822994</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U43" t="n">
-        <v>1674.532768323298</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V43" t="n">
-        <v>1392.821300931327</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="W43" t="n">
-        <v>1117.96889710384</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X43" t="n">
-        <v>875.4050005496448</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y43" t="n">
-        <v>740.98166339623</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1800.873494217763</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1373.972764231063</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>950.6801434160632</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>524.7032035639207</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>99.57902175332092</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>99.57902175332092</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332092</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679213</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>865.1237628945948</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M44" t="n">
-        <v>1665.565375292398</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>2466.0069876902</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3234.107524839607</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712747</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.81465975738</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V44" t="n">
-        <v>2650.459750353793</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2632.441857341546</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2220.721858509293</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2220.721858509293</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679213</v>
+        <v>852.7780374834547</v>
       </c>
       <c r="M45" t="n">
-        <v>865.1237628945948</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.928168679499</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>981.6063033152611</v>
+        <v>889.3863753430678</v>
       </c>
       <c r="C46" t="n">
-        <v>809.6337401941771</v>
+        <v>717.4138122219838</v>
       </c>
       <c r="D46" t="n">
-        <v>646.3169673209478</v>
+        <v>554.0970393487545</v>
       </c>
       <c r="E46" t="n">
-        <v>480.1087614738013</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F46" t="n">
-        <v>308.2469872483617</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2198.056564597094</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>2198.056564597094</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U46" t="n">
-        <v>1917.872116097398</v>
+        <v>1830.170476311557</v>
       </c>
       <c r="V46" t="n">
-        <v>1636.160648705427</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.115040337585</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.115040337585</v>
+        <v>1305.895112365391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1171.772272027327</v>
+        <v>1079.552344055134</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>546.3101998434627</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>185.9167539104604</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>452.4011488286621</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>378.5549082613589</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,19 +8458,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>547.8252218830993</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P9" t="n">
-        <v>267.4386025673074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>319.4937917088142</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>767.0851935457781</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.6987709321241</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425248</v>
+        <v>953.9632561035934</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>69.7244713600812</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222299</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>767.1603027556724</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,19 +9172,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1043.074428213578</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9240,19 +9242,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>177.9816038035657</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>611.6066190166155</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,22 +9479,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>676.5644435722569</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>124.3756766890881</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>726.5568076873996</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10904,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>408.4283502568324</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425246</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093335</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443478</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>90.51442316805191</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>356.1600067973677</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>571.9957402170987</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11148,10 +11150,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234433</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>510.4039481765655</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425246</v>
+        <v>119.7858681845732</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093335</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443478</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>813.250087789768</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222297</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>231.2464684003139</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321239</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>378.7648050416801</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>217.0920444752562</v>
+        <v>27.11827597318256</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.16850114153667</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.6199933211062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>140.9093584752758</v>
+        <v>206.3388488977649</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>106.2309441183567</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>125.8003826660205</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>228.4592424461728</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.017047368369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>162.2770323843601</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>31.23965156415257</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>90.77286840263298</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6313887632612</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.7088052046617</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>30.78029002388553</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>45.51599332541792</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>9.958747209595856</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>50.61322712175772</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>225.4998855094257</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>115.7088052046618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.00023684527477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>4.64841005134241</v>
       </c>
       <c r="W44" t="n">
-        <v>374.589722120532</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>49.80378675550362</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>36.43872750504846</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427564.8051112513</v>
+        <v>567793.7065934042</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427564.8051112512</v>
+        <v>567793.7065934041</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576611.8698549792</v>
+        <v>576611.8698549791</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>576611.8698549792</v>
+        <v>576611.8698549793</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427564.8051112513</v>
+        <v>567793.7065934042</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427564.8051112512</v>
+        <v>567793.7065934039</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>451393.0677086514</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086512</v>
       </c>
       <c r="D2" t="n">
         <v>451393.0677086513</v>
       </c>
       <c r="E2" t="n">
-        <v>322990.9468021279</v>
+        <v>428912.7678245149</v>
       </c>
       <c r="F2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.767824515</v>
       </c>
       <c r="G2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="H2" t="n">
         <v>435573.5624315217</v>
-      </c>
-      <c r="H2" t="n">
-        <v>435573.5624315214</v>
       </c>
       <c r="I2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="J2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="K2" t="n">
         <v>435573.5624315217</v>
@@ -26344,16 +26346,16 @@
         <v>435573.5624315217</v>
       </c>
       <c r="M2" t="n">
-        <v>435573.5624315218</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="N2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="O2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245151</v>
       </c>
       <c r="P2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245152</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346224</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="F4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.67952111639</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="H4" t="n">
         <v>29432.2870559115</v>
@@ -26448,16 +26450,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>21799.09004189545</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="P4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.6795211164</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756202</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756202</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40789.00745075065</v>
+        <v>40789.00745075062</v>
       </c>
       <c r="C6" t="n">
-        <v>227193.7408654879</v>
+        <v>227193.7408654878</v>
       </c>
       <c r="D6" t="n">
         <v>227193.7408654878</v>
       </c>
       <c r="E6" t="n">
-        <v>176702.4712292082</v>
+        <v>116441.3225788051</v>
       </c>
       <c r="F6" t="n">
-        <v>252033.4223826706</v>
+        <v>323873.6101953662</v>
       </c>
       <c r="G6" t="n">
-        <v>199500.81337564</v>
+        <v>320765.5911036989</v>
       </c>
       <c r="H6" t="n">
-        <v>328391.2131871802</v>
+        <v>328391.2131871805</v>
       </c>
       <c r="I6" t="n">
         <v>328391.2131871805</v>
@@ -26552,16 +26554,16 @@
         <v>328391.2131871805</v>
       </c>
       <c r="M6" t="n">
-        <v>265517.2762218069</v>
+        <v>155260.7219815408</v>
       </c>
       <c r="N6" t="n">
-        <v>328391.2131871803</v>
+        <v>328391.2131871802</v>
       </c>
       <c r="O6" t="n">
-        <v>252033.4223826705</v>
+        <v>323873.6101953663</v>
       </c>
       <c r="P6" t="n">
-        <v>252033.4223826705</v>
+        <v>323873.6101953663</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099017</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099017</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>159.8619465992155</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>312.3096857231762</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8.840212151060001</v>
+        <v>114.189558399806</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>255.9418176472615</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7.743021135052956</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>18.97696380801074</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>122.4992781335012</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1704573377096494</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>160.1907602590138</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.836616817666</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>58.60684960120466</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.642779091942156e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28728,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>162.8199733981324</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>263.0232516395698</v>
+        <v>415.010189472638</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>357.2118800478172</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>510.5455990486533</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P9" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>282.2141688743682</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>743.9884130334501</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099019</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099019</v>
+        <v>915.6512136709705</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>34.69182146528473</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099019</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>743.9884130334502</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,19 +35892,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1005.643165314146</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>155.5823699702324</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937779</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>574.2156596605913</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>654.0493568580273</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>86.80031487885682</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>690.7922068925902</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>385.2564605346102</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099017</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099017</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099017</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>53.12346381202781</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>318.5846449871364</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5965063837654</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099017</v>
+        <v>81.47382575195027</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099017</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099017</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>775.859128433744</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099017</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>209.9034401867722</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2009769.421039541</v>
+        <v>2009051.430924682</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760736</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.7879340493992</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>83.66442019340714</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -673,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>106.3397188323758</v>
       </c>
       <c r="C4" t="n">
-        <v>56.0632790900671</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.7080630013533</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>36.66438868520863</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1071,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>257.4638774372665</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>117.6389794551517</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>340.9917477555401</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,13 +1141,13 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -1195,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>247.4120385849164</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>49.30653966551922</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.46305123648368</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1581,16 +1581,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>251.7760767448688</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>259.3654980081398</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>221.4655660477363</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>7.289790390561099</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>218.7757544134979</v>
       </c>
       <c r="U19" t="n">
-        <v>71.04375511693387</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.31517967031825</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2535,10 +2535,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>50.43511027187863</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.98727664058491</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2763,19 +2763,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>79.47996908724016</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>48.83731858401327</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>121.5805385097619</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.5633473017375</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3559,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>171.3263863974137</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>189.5250304668952</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>214.0679051944713</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>102.0412378013739</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>156.3950745845503</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>349.2661106736706</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4140,16 +4140,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>114.7423370331714</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4197,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1235.878926328994</v>
+        <v>630.5162044197334</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.018600382698</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.766383608102</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.829847796364</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F2" t="n">
-        <v>746.7056659857641</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.61838738015</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>1503.227037680497</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X2" t="n">
-        <v>1495.547442888648</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y2" t="n">
-        <v>1494.250576883943</v>
+        <v>1050.364568711263</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>966.8891568663047</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>966.8891568663047</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M3" t="n">
-        <v>1128.080930530456</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>1128.080930530456</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1128.080930530456</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1012.336359290852</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E4" t="n">
         <v>626.1818057320246</v>
@@ -4488,25 +4488,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
@@ -4530,10 +4530,10 @@
         <v>1202.502328002918</v>
       </c>
       <c r="X4" t="n">
-        <v>1202.502328002918</v>
+        <v>959.9384314487228</v>
       </c>
       <c r="Y4" t="n">
-        <v>1202.502328002918</v>
+        <v>733.5956631384648</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.9297397222204</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0694137759246</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>137.8122684917846</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1504.699634058179</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1108.308284358525</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>696.5882855262728</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>291.2510154811631</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>316.1957143288386</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>316.1957143288386</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4725,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1944.72680396268</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1663.015336570709</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>1663.015336570709</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1609.066928185038</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>474.3658485662004</v>
       </c>
     </row>
     <row r="9">
@@ -4886,16 +4886,16 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M9" t="n">
-        <v>874.3078922751886</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>1424.973427259627</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>595.8003524114338</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>423.8277892903498</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>260.5110164171205</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>94.30281056997401</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1811.43685720741</v>
+        <v>2179.999079496231</v>
       </c>
       <c r="V10" t="n">
-        <v>1529.725389815439</v>
+        <v>1898.28761210426</v>
       </c>
       <c r="W10" t="n">
-        <v>1254.872985987952</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>1012.309089433757</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>785.9663211234994</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5053,40 +5053,40 @@
         <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>4088.350919196421</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O11" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>936.8757529618962</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
         <v>1908.7645754595</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1011.396293177787</v>
+        <v>845.0772984349965</v>
       </c>
       <c r="C13" t="n">
-        <v>839.4237300567033</v>
+        <v>845.0772984349965</v>
       </c>
       <c r="D13" t="n">
-        <v>676.106957183474</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="E13" t="n">
-        <v>509.8987513363276</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
         <v>509.8987513363276</v>
@@ -5229,22 +5229,22 @@
         <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2063.316311498426</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1783.131862998731</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1528.812593559469</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="W13" t="n">
-        <v>1253.960189731982</v>
+        <v>1277.807163701257</v>
       </c>
       <c r="X13" t="n">
-        <v>1011.396293177787</v>
+        <v>1035.243267147062</v>
       </c>
       <c r="Y13" t="n">
-        <v>1011.396293177787</v>
+        <v>1035.243267147062</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734694</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919694</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067552</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569519</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G14" t="n">
-        <v>323.7795368464006</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H14" t="n">
-        <v>100.0769448789901</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1722.07995438875</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2726.366055807808</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>3702.617114294509</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O14" t="n">
-        <v>4547.761764445321</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
         <v>4547.761764445321</v>
@@ -5305,25 +5305,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>1019.283297448028</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.283297448028</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>506.9585545037891</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>506.9585545037891</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G16" t="n">
         <v>343.6417816305598</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292118</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292118</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5515,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5676,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358268</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302475</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.71574081896</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.71574081896</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.71574081896</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U19" t="n">
-        <v>2210.954372013976</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V19" t="n">
-        <v>1929.242904622005</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W19" t="n">
-        <v>1654.390500794518</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X19" t="n">
-        <v>1411.826604240323</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1185.483835930065</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5828,19 +5828,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>742.8905159778161</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>742.8905159778161</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>742.8905159778161</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3854.586992529306</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4323.493657393759</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>4323.493657393759</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>4080.929760839565</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3854.586992529306</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6411,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U28" t="n">
-        <v>1955.492679006434</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V28" t="n">
-        <v>1955.492679006434</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W28" t="n">
-        <v>1680.640275178947</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>1438.076378624753</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1211.733610314495</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6551,13 +6551,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6788,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1068.606254915256</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>896.6336917941717</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>733.3169189209424</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1727.678888491774</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1485.114991937579</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1258.772223627321</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7025,13 +7025,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1830.869225946121</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1556.016822118634</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1556.016822118634</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7180,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7262,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8490191059097</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8764559848257</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D40" t="n">
-        <v>268.5596831115964</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>268.5596831115964</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7335,49 +7335,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358274</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2109.658784861977</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1829.474336362281</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1829.474336362281</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1554.621932534794</v>
       </c>
       <c r="X40" t="n">
-        <v>794.0149878179755</v>
+        <v>1312.058035980599</v>
       </c>
       <c r="Y40" t="n">
-        <v>794.0149878179755</v>
+        <v>1085.715267670341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
         <v>432.8421946614841</v>
@@ -7411,25 +7411,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4570.892110530337</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4886.290909067602</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
         <v>4886.290909067602</v>
@@ -7438,25 +7438,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>5003.847243949504</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>962.2593607269207</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>962.2593607269207</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>962.2593607269207</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>962.2593607269207</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
         <v>1908.7645754595</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1183.258067403227</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.285504282143</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>847.9687314089136</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="E43" t="n">
-        <v>681.7605255617672</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F43" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7599,22 +7599,22 @@
         <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>2280.489972292118</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>2000.305523792422</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>2000.305523792422</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1842.330700979745</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>1599.766804425551</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.424036115293</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7678,10 +7678,10 @@
         <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>4782.921672994137</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
-        <v>4524.566763590549</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
         <v>4171.772712405023</v>
@@ -7733,16 +7733,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>852.7780374834547</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>1908.7645754595</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
         <v>1908.7645754595</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>889.3863753430678</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C46" t="n">
-        <v>717.4138122219838</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="D46" t="n">
-        <v>554.0970393487545</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="E46" t="n">
-        <v>438.1956888101976</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F46" t="n">
-        <v>266.333914584758</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
         <v>100.0769448789901</v>
@@ -7836,22 +7836,22 @@
         <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>2110.354924811253</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>1830.170476311557</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V46" t="n">
-        <v>1548.459008919586</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W46" t="n">
-        <v>1548.459008919586</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X46" t="n">
-        <v>1305.895112365391</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1079.552344055134</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>571.3293238908518</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M3" t="n">
-        <v>185.9167539104604</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,7 +8075,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8300,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>547.8252218830994</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8534,19 +8534,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>455.7096961566975</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8701,19 +8701,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>653.2657740422958</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>108.6376593882833</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>106.3367244377138</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>953.9632561035934</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>932.7584873252742</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>473.4786168441952</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9485,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>997.2808002453501</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9725,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9734,7 +9734,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>466.4461461201186</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10436,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>440.9328573103608</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10673,16 +10673,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10828,25 +10828,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>967.5075822902267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11077,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>356.1600067973677</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,10 +11138,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>510.4039481765655</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>119.7858681845732</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,19 +11381,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>27.11827597318256</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>12.73838178107229</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>73.42412869296919</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>180.9745186343839</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>22.13019988286109</v>
       </c>
       <c r="U19" t="n">
-        <v>206.3388488977649</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2309441183567</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>228.4592424461728</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>162.2770323843601</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>90.77286840263298</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24849,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>115.7088052046617</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>40.10306663473513</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.51599332541792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>69.57956789894533</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>50.61322712175772</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>4.64841005134187</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>59.64236734312307</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>115.7088052046618</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>4.64841005134241</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>49.80378675550362</v>
+        <v>66.39245920468254</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>567793.7065934042</v>
+        <v>567793.7065934041</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>567793.7065934041</v>
+        <v>567793.7065934042</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576611.8698549791</v>
+        <v>576611.8698549792</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>576611.8698549791</v>
+        <v>576611.8698549792</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>576611.8698549793</v>
+        <v>576611.8698549792</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>576611.8698549793</v>
+        <v>576611.8698549792</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>576611.8698549792</v>
+        <v>576611.8698549793</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>567793.7065934039</v>
+        <v>567793.7065934041</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086511</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086513</v>
       </c>
       <c r="D2" t="n">
         <v>451393.0677086513</v>
       </c>
       <c r="E2" t="n">
-        <v>428912.7678245149</v>
+        <v>428912.7678245152</v>
       </c>
       <c r="F2" t="n">
-        <v>428912.767824515</v>
+        <v>428912.7678245152</v>
       </c>
       <c r="G2" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315213</v>
       </c>
       <c r="H2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="I2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="J2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="K2" t="n">
         <v>435573.5624315214</v>
       </c>
-      <c r="K2" t="n">
-        <v>435573.5624315217</v>
-      </c>
       <c r="L2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="M2" t="n">
+        <v>435573.5624315213</v>
+      </c>
+      <c r="N2" t="n">
         <v>435573.5624315215</v>
       </c>
-      <c r="N2" t="n">
-        <v>435573.5624315214</v>
-      </c>
       <c r="O2" t="n">
-        <v>428912.7678245151</v>
+        <v>428912.767824515</v>
       </c>
       <c r="P2" t="n">
         <v>428912.7678245152</v>
@@ -26426,16 +26426,16 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
+        <v>28980.67952111639</v>
+      </c>
+      <c r="F4" t="n">
         <v>28980.6795211164</v>
       </c>
-      <c r="F4" t="n">
-        <v>28980.67952111639</v>
-      </c>
       <c r="G4" t="n">
+        <v>29432.2870559115</v>
+      </c>
+      <c r="H4" t="n">
         <v>29432.28705591151</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26450,7 +26450,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
@@ -26459,7 +26459,7 @@
         <v>28980.6795211164</v>
       </c>
       <c r="P4" t="n">
-        <v>28980.6795211164</v>
+        <v>28980.67952111639</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40789.00745075062</v>
+        <v>40789.00745075042</v>
       </c>
       <c r="C6" t="n">
         <v>227193.7408654878</v>
@@ -26530,40 +26530,40 @@
         <v>227193.7408654878</v>
       </c>
       <c r="E6" t="n">
-        <v>116441.3225788051</v>
+        <v>116368.8054824049</v>
       </c>
       <c r="F6" t="n">
-        <v>323873.6101953662</v>
+        <v>323801.093098966</v>
       </c>
       <c r="G6" t="n">
-        <v>320765.5911036989</v>
+        <v>320714.5604415144</v>
       </c>
       <c r="H6" t="n">
-        <v>328391.2131871805</v>
+        <v>328340.182524996</v>
       </c>
       <c r="I6" t="n">
-        <v>328391.2131871805</v>
+        <v>328340.1825249962</v>
       </c>
       <c r="J6" t="n">
-        <v>182857.5432523637</v>
+        <v>182806.5125901795</v>
       </c>
       <c r="K6" t="n">
-        <v>328391.2131871805</v>
+        <v>328340.1825249959</v>
       </c>
       <c r="L6" t="n">
-        <v>328391.2131871805</v>
+        <v>328340.182524996</v>
       </c>
       <c r="M6" t="n">
-        <v>155260.7219815408</v>
+        <v>155209.6913193563</v>
       </c>
       <c r="N6" t="n">
-        <v>328391.2131871802</v>
+        <v>328340.182524996</v>
       </c>
       <c r="O6" t="n">
-        <v>323873.6101953663</v>
+        <v>323801.0930989656</v>
       </c>
       <c r="P6" t="n">
-        <v>323873.6101953663</v>
+        <v>323801.0930989659</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.8619465992155</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>338.9673024934257</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>81.92459019256917</v>
       </c>
       <c r="C4" t="n">
-        <v>114.189558399806</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.9418176472615</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>385.0527817684124</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27830,16 +27830,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>21.43047528078489</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>122.4992781335012</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>74.65813289307459</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,13 +27861,13 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>160.1907602590138</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.836616817666</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>232.9195527782151</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-7.6250157187155e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P2" t="n">
-        <v>533.7539620806206</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M3" t="n">
-        <v>162.8199733981324</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>510.5455990486534</v>
-      </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35254,19 +35254,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>432.5378064344753</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35421,19 +35421,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>71.06229757805201</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>83.23994392538586</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>915.6512136709705</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>452.1355886306535</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937779</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366207</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>974.1840197330221</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37156,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>930.2279594557806</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937787</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37797,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>318.5846449871364</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>487.2320584543432</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>81.47382575195027</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
